--- a/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/5_Processed/SpectralIndices_Corrected.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/5_Processed/SpectralIndices_Corrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/1-Data/WG2_CDOM/Corrected/5_Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\WG2_CDOM\Corrected\5_Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4CC27F73264621F648DB1F91171863CF3D1766AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF6766-829F-4F29-B270-549A515D06FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -404,12 +404,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,8 +430,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,19 +733,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -753,13 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -821,66 +831,66 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5.9103700135246101E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>8.8113303476291094E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.18617768675608201</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>8.4306065904001998E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>6.6130680194021393E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1.29147937078073E-2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>7.1571162678267797E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>2.11293504398206</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>0.35520196510262497</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>0.78441188643914805</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>0.750518679756631</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1.5642814837232299</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>448</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>1.9142201184257901</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>0.65685502145933194</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>0.90074405176345096</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>12.011159070962799</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>1.0529799828883899</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -927,66 +937,66 @@
         <v>25.355981386698002</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4.00446261240512E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>6.5280392479159802E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.22363791717947401</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.12063345930328501</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.10604455969011201</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>3.6031804456460002E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>7.3167120956955295E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>3.4258053404147102</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.47417969648236802</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>0.879064235599055</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>1.6244473365255201</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>1.5769179066575201</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>462</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>5.94401819530193</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>0.85599116075522896</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>0.75633302314291595</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>3.5768927079568602</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>0.77517976160978996</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>0.76715093294314596</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1104,66 +1114,66 @@
         <v>0.73923836663243603</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5.0433836417198598E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>7.92830766743364E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.25968283072256798</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.12779093249110901</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.11284986976073701</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3.7697035584642401E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>7.1067395258694405E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>3.27538790893853</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>0.43456808232847799</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.883081980551227</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>1.4233790424693</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>1.5092867738748801</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>455</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>5.3886546315031199</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>0.84347252157458996</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>0.75653189074206295</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>3.78405338115155</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>0.79700061343902195</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>0.710928286694824</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1281,125 +1291,125 @@
         <v>0.90543353717991504</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>9.1710702353623205E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.124751217350166</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.33137169822180101</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.14951761484277901</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.134228801558578</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>3.7504648952946702E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.114224753229138</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>2.6562602374586</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>0.40507020448298198</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0.89774573851865302</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>1.0759718775473699</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>1.7095869004503901</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>448</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>3.8158299723073301</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>0.79235147300665898</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>0.91103700377586505</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>7.0622675607981096</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>0.99542555437644498</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>7.0988342300410096E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.107592449173938</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.26895461738132598</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.13612659753057699</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.119588754832101</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>3.5844565649251002E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>0.116687388725637</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>2.4997536485717902</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>0.44464287691535498</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>0.87851130492877305</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>1.1114976538806201</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>1.7163701855057001</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>453</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>3.72472804019197</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>0.78834760614933297</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>0.93859151172085398</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>6.79651979758476</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>0.98117300601152202</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1434,207 +1444,207 @@
         <v>3.4444070386932899</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>7.3528996112486297E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>9.8397557610837794E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.13071359936469701</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>5.1621822587634397E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>4.1852333835379299E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1.2103034397952701E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>3.1485494212589102E-2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1.3284232102758999</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>0.32018347011170201</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>0.81074886041324601</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>0.42533915324306398</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>2.5194720515364999</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>0.71586647504036105</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>1.01693301931965</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>7.5809682594889498</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>1.25097106293604</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>6.40846394645678E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>7.2831512370157697E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.14577250734703301</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>5.57585133220471E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>4.2349638917215798E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1.1866208542301099E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>5.06218706300956E-2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>2.5087833499060501</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>0.71500092759309997</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>3.1328919951479302</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>4.5780961818039097E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>6.92862921423512E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.14700440805700099</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>5.1761533458886802E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>4.1124230036132303E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>8.7349695814467106E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>5.02836130571893E-2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>2.1216954106156298</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>0.27974827816174402</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>0.79449404389838096</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>0.59354063790339795</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>2.1853263038752102</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>0.68606042062836203</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>0.89418973134124802</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>7.1343647718698397</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>0.95000626595656301</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6.9588805462878198E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>8.1837655990852895E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.20037752778762299</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>7.2002932220385701E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>6.5006206357651294E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>2.0825854129213901E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>4.8373705798915999E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>2.4484758924427101</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>0.32441864651883701</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>0.902827209295882</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>0.79433123506026504</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>1.57349887218536</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>455</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>4.1214484046514697</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>0.80474273662666096</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>0.80827872988593297</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>5.74976784923407</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>1.0004207730968</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>0.90430597417457304</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>1.2049088173873701</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>0.68814296516035001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1858,66 +1868,66 @@
         <v>0.68973672633193805</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>3.6403519219618402E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>4.00265851494623E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>9.9933107588128706E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>4.2931936256135103E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>3.8660407565423299E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>1.21974141681278E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>2.83896395565577E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>2.4966683321839902</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>0.38686285755028299</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>0.90050463447007101</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>0.96586824534399796</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>1.6130420087117301</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>455</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>4.1038353018574298</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>0.804068912718232</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>0.83299826564081203</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>2.1951165038206399</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>0.93322292404563001</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +1980,7 @@
         <v>0.80555943471054403</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>0.71197443766541302</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2088,125 +2098,125 @@
         <v>0.97264160945173495</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>5.5676065279605801E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>7.0734624849365005E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.275384531354121</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.13808056824274201</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.12867505039483301</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>4.7444669230799298E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>7.7672068384828194E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>3.8932069257534598</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>0.46725591216802098</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0.93188384167586202</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>1.81912395335179</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>1.51462783541226</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>462</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>7.6415605849458998</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>0.88428016095355999</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>0.60287476115097005</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>2.3675742577432901</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>0.62500388267601703</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4.1627444141724403E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>5.4608492860225497E-2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.242389382059194</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.12901008482256399</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.122848743769637</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>4.6519752247533602E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>6.5021709907171002E-2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>4.4386755496000898</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0.50682394882972304</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>0.95224139987659895</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>2.2496270696222598</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>1.5320636605995099</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>457</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>7.4415123109310697</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>0.88153781417755195</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>0.62563105693287602</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>2.1929491522489299</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>0.62709527867509396</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>0.86791711277724404</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2324,60 +2334,60 @@
         <v>0.89244499801507504</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>5.8506812625751102E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>6.0286029150191198E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.15209687944548</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>5.3130795463545197E-2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>4.3065054436112901E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1.11895670967783E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>6.6676959443157102E-3</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>2.5229208423490599</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>0.28314226165008</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>0.81054789525335202</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>0.71434551326683704</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>2.4775685377264098</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>0.71244276305369802</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>0.68754326562553403</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>7.7830864936548796</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>1.1266284597606</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>18.7139080793064</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>0.87276261018210299</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -2530,189 +2540,189 @@
         <v>0.96787315003068897</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>8.1116295113702094E-2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>6.7562244960072307E-2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.177563219518106</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>4.5282373122859099E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>3.80529026350587E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>8.9454815499827606E-3</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>1.6076992407647601E-2</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>2.6281426797324698</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>0.21430622140289801</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>0.84034691670894601</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>0.56322732700115297</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>1.9812928654181201</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>0.66457505346099199</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>0.53460902657315701</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>4.0901888933854504</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>6.1586174886315299E-2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>0.103002990589061</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.17213288153539</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>5.9833914365185599E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>5.8817506926061497E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>2.1598422047219401E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>3.3492322696133697E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>1.67114450319338</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>2.6675991166282098</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>0.72734206542198498</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>6.1442835225028896</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>3.0149847511133001E-2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>3.4397069761269002E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.10400968448834599</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>5.0460104145912503E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>4.7449331492828199E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>1.8540190038166302E-2</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>3.3654005419691699E-2</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>4.5436833323734298</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>0.81961451618992998</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>6.23315606055555</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>5.10529833629789E-2</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>5.8449419072985599E-2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.17416378261566501</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>6.3936306944924595E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>6.0023781947734299E-2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>1.77754862176016E-2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>1.5639218363787701E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>2.9797350491745198</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>0.34463986166510602</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>0.93880589630301003</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>1.0269354751461699</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>0.99665637752643199</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>455</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>3.8515393306828698</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>0.793879853003429</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>0.68363599316886003</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>8.6004213516149406</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="1">
         <v>0.82469517751755395</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -2771,7 +2781,7 @@
         <v>0.73190214415073795</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>0.680097919589848</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -2889,42 +2899,42 @@
         <v>0.70526486731738203</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>0.18721833911202199</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0.12621692842844801</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.32194485241086601</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.119949410829577</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0.107780596759085</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>4.1258315421828201E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>6.63769638507858E-2</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="1">
         <v>3.92250282753779</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>0.79685131019006605</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>1.5788419310414199</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>5.0687567223781098</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3009,95 +3019,95 @@
         <v>4.5419866534551803</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>4.8401291905179299E-2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>5.0470470650552102E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.33305316396211998</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.146628171362124</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0.146903365537259</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>6.7030018065537406E-2</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>5.8609978420065503E-2</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="1">
         <v>10.3728059702481</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>0.91207095218048595</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>2.1383638237944398</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>6.4873634194981405E-2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>9.3736542465592307E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.28913011371298603</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0.13852972869017299</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0.128386521687233</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>4.4296183748613799E-2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>9.2511114340538797E-2</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>3.08449731671206</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>0.44404410193910099</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <v>0.92677956494359404</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <v>1.36965284093297</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="1">
         <v>7.2136903506347698</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="1">
         <v>0.87825204538874302</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="1">
         <v>0.70205070466874597</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="1">
         <v>3.6142978907842598</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="1">
         <v>0.73872202512221197</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3156,7 +3166,7 @@
         <v>0.802892000995997</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3197,66 +3207,66 @@
         <v>24.785431766091001</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>5.7869363399390701E-2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>8.5405379440544493E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.25406836986417097</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>9.2979922527206299E-2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>8.4423969633235202E-2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>2.8559751944896999E-2</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>4.7200494021907999E-2</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>2.9748520705425001</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>0.33228839024066398</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>0.90798064075104301</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <v>0.98850880572467303</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>1.7018837180609601</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <v>462</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="1">
         <v>5.8337537814521898</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="1">
         <v>0.85366754027425695</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>0.66294210363227801</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="1">
         <v>14.7554824816471</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="1">
         <v>0.77930782190197201</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>21.199601275535201</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3350,60 +3360,60 @@
         <v>1.1531127256301099</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>5.7086773671926501E-2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>8.7005661857006103E-2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.193965730482802</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>6.3253287801359206E-2</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>5.0371627484011597E-2</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>1.5187180797369099E-2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>6.9239624788622195E-2</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="1">
         <v>2.2293460717715701</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>0.25969343841631798</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="1">
         <v>0.79634797233305499</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="1">
         <v>0.57894654679826896</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="1">
         <v>2.51483168204977</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="1">
         <v>0.71549135479033199</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="1">
         <v>0.70938769632503396</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="1">
         <v>12.2188166516503</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="1">
         <v>0.70938769632503396</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3462,7 +3472,7 @@
         <v>0.96841824520778896</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>0.72028685525210401</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -3571,7 +3581,7 @@
         <v>11.4618532732873</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>0.88081375339004697</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -3662,42 +3672,42 @@
         <v>13.139971788512</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>8.3653199854140298E-2</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>8.8369118549934497E-2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>0.20481773259609801</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>8.0444006357083694E-2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>7.3929605489297501E-2</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>2.4096286225415001E-2</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>4.7879143705699803E-2</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="1">
         <v>3.7350471052871099</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="1">
         <v>0.78880885918042698</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="1">
         <v>6.3277681648879804</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -3750,60 +3760,60 @@
         <v>0.84812167543245498</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>6.2309726038620297E-2</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>5.9185936409107902E-2</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>0.11706993787652201</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>3.92011333431697E-2</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>3.3422107048391297E-2</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>1.10309951207341E-2</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>7.8705768316904602E-3</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="1">
         <v>1.97800263000497</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="1">
         <v>0.28548838117299502</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="1">
         <v>0.85258012200340505</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="1">
         <v>0.56469676879604402</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="1">
         <v>2.3988970846681199</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="1">
         <v>0.70578691408138206</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>0.68527363799478003</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="1">
         <v>11.490350524796</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="1">
         <v>1.00873497925192</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -3862,57 +3872,57 @@
         <v>0.74034346448188004</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>5.3778951505023501E-2</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>6.52006548882582E-2</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>0.12812592991326699</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>3.5217778910606498E-2</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>2.6875366262601098E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>4.9299934127020597E-3</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>4.69511713635029E-3</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>1.9651018863667999</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>0.20975743380589701</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="1">
         <v>0.76311928502984305</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="1">
         <v>0.41219472885142799</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <v>1.14667019151546</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="1">
         <v>0.53416225559360697</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="1">
         <v>0.74265207832489799</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="1">
         <v>4.7718717768369698</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -3965,60 +3975,60 @@
         <v>27.048545040622301</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>7.45839535996424E-2</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>7.02358196925843E-2</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>0.16929011012189199</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>5.1240340269259797E-2</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>4.3177573443927003E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>6.2450740057329304E-3</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>2.5456529378061501E-2</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="1">
         <v>2.4103101645692999</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="1">
         <v>0.25505077297686402</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="1">
         <v>0.84264806238670098</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="1">
         <v>0.61475147058739099</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="1">
         <v>2.92883898196978</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="1">
         <v>0.74547187996525199</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="1">
         <v>0.761883894716057</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="1">
         <v>8.0480822004687393</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="1">
         <v>0.80514580342335096</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -4065,7 +4075,7 @@
         <v>11.2107528590501</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -4103,7 +4113,7 @@
         <v>30.793975985188201</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4162,7 +4172,7 @@
         <v>0.57760461992587198</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -4221,44 +4231,44 @@
         <v>0.57826747505084597</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>4.01028924412117E-2</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>5.2121651940296901E-2</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>0.27328905832624201</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>0.128345347672223</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.13721371400118401</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>6.1708106189433599E-2</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>5.3528570416489202E-2</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>0.50208272091663497</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="1">
         <v>1.0690976844101101</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="1">
         <v>12.611306596019</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="1">
         <v>0.92653166740858806</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>2.4456073237011098</v>
       </c>
     </row>
@@ -4272,11 +4282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F64" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4338,7 +4348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4397,7 +4407,7 @@
         <v>1.0529799828872899</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4444,7 +4454,7 @@
         <v>59.992251960899303</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4503,7 +4513,7 @@
         <v>0.77517976160977797</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4562,7 +4572,7 @@
         <v>0.76715093294286596</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4621,7 +4631,7 @@
         <v>0.73923836663247799</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>0.79700061343960504</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4739,7 +4749,7 @@
         <v>0.71092828669465502</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4798,7 +4808,7 @@
         <v>0.905433537179961</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4857,7 +4867,7 @@
         <v>0.99542555437696101</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4916,7 +4926,7 @@
         <v>0.98117300601152302</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>5.7246044983093398</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>1.2509710629312001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>6.5164153499079296</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -5092,7 +5102,7 @@
         <v>0.95000626595638105</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -5151,7 +5161,7 @@
         <v>1.0004207730974599</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5204,7 +5214,7 @@
         <v>0.90430597417428704</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -5257,7 +5267,7 @@
         <v>1.2049088173870299</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>0.68814296516013895</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -5375,7 +5385,7 @@
         <v>0.68973672633191696</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -5434,7 +5444,7 @@
         <v>0.93322292404565899</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5487,7 +5497,7 @@
         <v>0.80555943471038705</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>0.71197443766492097</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -5605,7 +5615,7 @@
         <v>0.97264160945174805</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>0.62500388267599805</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -5723,7 +5733,7 @@
         <v>0.62709527867510395</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -5782,7 +5792,7 @@
         <v>0.86791711277709904</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -5841,7 +5851,7 @@
         <v>0.89244499801507404</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -5894,7 +5904,7 @@
         <v>1.1266284597612399</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -5941,7 +5951,7 @@
         <v>60.5956343607902</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -5994,7 +6004,7 @@
         <v>0.87276261018194301</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -6047,7 +6057,7 @@
         <v>0.96787315002674701</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -6097,7 +6107,7 @@
         <v>6.2620791957744002</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>10.0827692604374</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -6170,7 +6180,7 @@
         <v>10.228609095377101</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -6229,7 +6239,7 @@
         <v>0.82469517751761601</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -6288,7 +6298,7 @@
         <v>0.73190214415072996</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>0.68009791958982901</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -6406,7 +6416,7 @@
         <v>0.70526486731737903</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -6444,7 +6454,7 @@
         <v>1.7786766418328499</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -6479,7 +6489,7 @@
         <v>2.99190545932067</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -6526,7 +6536,7 @@
         <v>9.5140563678931205</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -6564,7 +6574,7 @@
         <v>10.5056151293936</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>13.5700568257994</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -6652,7 +6662,7 @@
         <v>0.73872202512224505</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>0.80289200099608005</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -6752,7 +6762,7 @@
         <v>55.370654565356197</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>0.77930782190280201</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -6852,7 +6862,7 @@
         <v>54.737370493455302</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -6890,7 +6900,7 @@
         <v>1.5573141287044601</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -6928,7 +6938,7 @@
         <v>2.9331619594868799</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -6966,7 +6976,7 @@
         <v>4.90240554935286</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -7007,7 +7017,7 @@
         <v>1.0544369859661</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>1.76693662835292</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -7086,7 +7096,7 @@
         <v>1.13011434619873</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -7124,7 +7134,7 @@
         <v>0.98560192262165802</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -7162,7 +7172,7 @@
         <v>3.3978314094733002</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -7200,7 +7210,7 @@
         <v>7.1680570882112704</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>1.8928393601506801</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -7282,7 +7292,7 @@
         <v>1.05302102044929</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -7320,7 +7330,7 @@
         <v>1.1437633488966501</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>1.32806516076643</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -7408,7 +7418,7 @@
         <v>14.646574802684301</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -7461,7 +7471,7 @@
         <v>1.1531127256295399</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -7514,7 +7524,7 @@
         <v>0.70938769632325505</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -7573,7 +7583,7 @@
         <v>0.96841824520863595</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -7632,7 +7642,7 @@
         <v>0.72028685525181801</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -7682,7 +7692,7 @@
         <v>20.425022532962</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -7735,7 +7745,7 @@
         <v>0.88081375338970003</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -7773,7 +7783,7 @@
         <v>24.992226342153799</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>13.256674305433499</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -7867,7 +7877,7 @@
         <v>0.88852717004902504</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -7920,7 +7930,7 @@
         <v>0.84812167543235695</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -7973,7 +7983,7 @@
         <v>1.0087349792535301</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>0.74034346448200805</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -8070,7 +8080,7 @@
         <v>3.1828415043315399</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -8108,7 +8118,7 @@
         <v>13.493639651995901</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -8158,7 +8168,7 @@
         <v>8.2457944303952999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>50.4996335908018</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -8264,7 +8274,7 @@
         <v>0.80514580342410302</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -8311,7 +8321,7 @@
         <v>32.062753176870302</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -8349,7 +8359,7 @@
         <v>48.438924224625403</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -8408,7 +8418,7 @@
         <v>0.57760461992592405</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -8467,7 +8477,7 @@
         <v>0.57826747505086895</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -8519,12 +8529,15 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8574,8 +8587,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2">
@@ -8624,7 +8637,7 @@
         <v>2.2370000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8674,8 +8687,8 @@
         <v>2.3660000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4">
@@ -8724,7 +8737,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8774,7 +8787,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8824,8 +8837,8 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7">
@@ -8874,7 +8887,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -8924,7 +8937,7 @@
         <v>5.9589999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8974,8 +8987,8 @@
         <v>4.2990000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B10">
@@ -9024,8 +9037,8 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B11">
@@ -9074,8 +9087,8 @@
         <v>3.4180000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12">
@@ -9124,8 +9137,8 @@
         <v>1.6619999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13">
@@ -9174,8 +9187,8 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14">
@@ -9224,8 +9237,8 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B15">
@@ -9274,8 +9287,8 @@
         <v>1.9770000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B16">
@@ -9324,7 +9337,7 @@
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -9374,7 +9387,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9424,7 +9437,7 @@
         <v>2.2029999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9474,7 +9487,7 @@
         <v>5.1130000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9524,8 +9537,8 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21">
@@ -9574,7 +9587,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -9624,7 +9637,7 @@
         <v>7.5179999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9674,7 +9687,7 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9724,8 +9737,8 @@
         <v>4.8559999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25">
@@ -9774,8 +9787,8 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B26">
@@ -9824,7 +9837,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -9874,7 +9887,7 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -9924,8 +9937,8 @@
         <v>6.4210000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B29">
@@ -9974,7 +9987,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -10024,7 +10037,7 @@
         <v>3.238</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -10074,7 +10087,7 @@
         <v>2.7080000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -10124,7 +10137,7 @@
         <v>1.5069999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -10174,8 +10187,8 @@
         <v>1.5309999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B34">
@@ -10224,8 +10237,8 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B35">
@@ -10274,8 +10287,8 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B36">
@@ -10324,7 +10337,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -10374,7 +10387,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -10424,7 +10437,7 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -10474,8 +10487,8 @@
         <v>4.5529999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B40">
@@ -10524,7 +10537,7 @@
         <v>1.895</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -10574,7 +10587,7 @@
         <v>1.877</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -10624,8 +10637,8 @@
         <v>2.3130000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B43">
@@ -10674,8 +10687,8 @@
         <v>6.3460000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B44">
@@ -10724,7 +10737,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -10774,7 +10787,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -10824,8 +10837,8 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B47">
@@ -10874,7 +10887,7 @@
         <v>1.821</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -10924,7 +10937,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -10974,8 +10987,8 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B50">
@@ -11024,7 +11037,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -11074,7 +11087,7 @@
         <v>2.5459999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -11124,7 +11137,7 @@
         <v>2.516</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -11174,7 +11187,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -11224,7 +11237,7 @@
         <v>1.782</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -11274,8 +11287,8 @@
         <v>1.9019999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B56">
@@ -11324,7 +11337,7 @@
         <v>2.0950000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -11374,8 +11387,8 @@
         <v>2.621</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B58">
@@ -11424,7 +11437,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -11474,8 +11487,8 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B60">
@@ -11524,7 +11537,7 @@
         <v>1.728</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -11574,8 +11587,8 @@
         <v>1.867</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B62">
@@ -11624,7 +11637,7 @@
         <v>1.6220000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -11674,7 +11687,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -11724,7 +11737,7 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -11774,7 +11787,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -11824,8 +11837,8 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B67">
